--- a/NewHire/newhire.xlsx
+++ b/NewHire/newhire.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
   <si>
     <t>Date Requested:</t>
   </si>
@@ -365,25 +365,31 @@
     <t xml:space="preserve"> @trade.tt</t>
   </si>
   <si>
-    <t xml:space="preserve">Shaughna </t>
-  </si>
-  <si>
-    <t>Bloomfield</t>
-  </si>
-  <si>
-    <t>Receptionist/ Office Manager</t>
-  </si>
-  <si>
-    <t>Doris Oshana</t>
-  </si>
-  <si>
-    <t>Maggie Bellefontaine</t>
-  </si>
-  <si>
-    <t>shaughna.bloomfield</t>
-  </si>
-  <si>
-    <t>sbloomfield</t>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Garrood</t>
+  </si>
+  <si>
+    <t>Intern- JS Developer</t>
+  </si>
+  <si>
+    <t>Bodil Stokke</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>harry.garrood</t>
+  </si>
+  <si>
+    <t>hgarrood</t>
+  </si>
+  <si>
+    <t>Please speak With Bodil</t>
+  </si>
+  <si>
+    <t>Intern position working with Bodil until September 2016 - Will be working both in the London office and remotely. Please speak to Bodil for further details</t>
   </si>
 </sst>
 </file>
@@ -747,7 +753,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="21" dropStyle="combo" dx="16" fmlaLink="A84" fmlaRange="Sheet2!$A$1:$A$22" noThreeD="1" sel="9"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="21" dropStyle="combo" dx="16" fmlaLink="A84" fmlaRange="Sheet2!$A$1:$A$22" noThreeD="1" sel="12"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -763,7 +769,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaRange="Sheet2!$C$21:$C$29" noThreeD="1" sel="3"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaRange="Sheet2!$C$21:$C$29" noThreeD="1" sel="3" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -783,7 +789,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="18" dropStyle="combo" dx="16" fmlaLink="A87" fmlaRange="Sheet2!$E$21:$E$29" noThreeD="1" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="18" dropStyle="combo" dx="16" fmlaLink="A87" fmlaRange="Sheet2!$E$21:$E$29" noThreeD="1" sel="4" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
@@ -799,7 +805,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -807,7 +813,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -815,7 +821,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2443,7 +2449,7 @@
   <dimension ref="A7:M94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2471,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="55">
-        <v>42356</v>
+        <v>42402</v>
       </c>
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
@@ -2582,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="57">
-        <v>42008</v>
+        <v>42408</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="57"/>
@@ -2637,7 +2643,9 @@
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
@@ -2651,7 +2659,9 @@
       <c r="E34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
@@ -2809,7 +2819,9 @@
       <c r="A60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="46"/>
+      <c r="B60" s="46" t="s">
+        <v>117</v>
+      </c>
       <c r="C60" s="46"/>
       <c r="D60" s="46"/>
       <c r="E60" s="46"/>
@@ -2838,9 +2850,7 @@
       <c r="A63" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="46" t="s">
-        <v>114</v>
-      </c>
+      <c r="B63" s="46"/>
       <c r="C63" s="46"/>
       <c r="D63" s="46"/>
       <c r="E63" s="46"/>
@@ -2928,7 +2938,9 @@
       <c r="A74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="44"/>
+      <c r="B74" s="44" t="s">
+        <v>118</v>
+      </c>
       <c r="C74" s="44"/>
       <c r="D74" s="44"/>
       <c r="E74" s="44"/>
@@ -3012,7 +3024,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="36" t="str">
         <f>(B11&amp;","&amp;B13&amp;","&amp;B67&amp;","&amp;B17&amp;","&amp;Sheet2!A35&amp;","&amp;B24&amp;","&amp;Sheet2!A38&amp;","&amp;B30&amp;","&amp;B63&amp;","&amp;Sheet2!A40&amp;","&amp;Sheet2!C38)</f>
-        <v>Shaughna ,Bloomfield,sbloomfield,,London,Receptionist/ Office Manager,Administration,Doris Oshana,Maggie Bellefontaine,260 Facilities,FALSE</v>
+        <v>Harry,Garrood,hgarrood,,London,Intern- JS Developer,Engineering,Bodil Stokke,,490 Engineering,FALSE</v>
       </c>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
@@ -3054,7 +3066,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="36">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B84" s="36" t="s">
         <v>99</v>
@@ -3098,7 +3110,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B87" s="36" t="s">
         <v>100</v>
@@ -4072,7 +4084,7 @@
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="30">
         <f>Sheet1!A84</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E36" s="26"/>
     </row>
@@ -4083,7 +4095,7 @@
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="str">
         <f>IF(A39=1,E21,IF(A39=2,E22,IF(A39=3,E23,IF(A39=4,E24,IF(A39=5,E25,IF(A39=6,E26,IF(A39=7,E27,IF(A39=8,E28,IF(A39=9,E29,IF(A39=10,E30,IF(A39=11,E31,IF(A39=12,E32,IF(A39=13,E33,IF(A39=14,E34,IF(A39=15,E35,IF(A39=16,E36,IF(A39=17,E37,IF(A39=18,E38,IF(A39=19,E39,E40)))))))))))))))))))</f>
-        <v>Administration</v>
+        <v>Engineering</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>106</v>
@@ -4096,13 +4108,13 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <f>Sheet1!A87</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="str">
         <f>INDEX(A:A,Sheet1!A84)</f>
-        <v>260 Facilities</v>
+        <v>490 Engineering</v>
       </c>
     </row>
   </sheetData>
@@ -4133,7 +4145,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f>(Sheet1!A81)</f>
-        <v>Shaughna ,Bloomfield,sbloomfield,,London,Receptionist/ Office Manager,Administration,Doris Oshana,Maggie Bellefontaine,260 Facilities,FALSE</v>
+        <v>Harry,Garrood,hgarrood,,London,Intern- JS Developer,Engineering,Bodil Stokke,,490 Engineering,FALSE</v>
       </c>
     </row>
   </sheetData>
